--- a/Validacao.xlsx
+++ b/Validacao.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Área de Trabalho\folhasAmendoim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579031A5-918F-463A-82A1-0697A1707528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8748275-F034-4C2B-906F-AF6F7DD0F5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="2130" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gabarito" sheetId="1" r:id="rId1"/>
-    <sheet name="Total Observadores" sheetId="16" r:id="rId2"/>
-    <sheet name="Observador 1" sheetId="2" r:id="rId3"/>
-    <sheet name="Observador 2" sheetId="3" r:id="rId4"/>
-    <sheet name="Observador 3" sheetId="4" r:id="rId5"/>
-    <sheet name="Observador 4" sheetId="5" r:id="rId6"/>
-    <sheet name="Observador 5" sheetId="6" r:id="rId7"/>
-    <sheet name="Observador 6" sheetId="7" r:id="rId8"/>
-    <sheet name="Observador 7" sheetId="9" r:id="rId9"/>
-    <sheet name="Observador 8" sheetId="10" r:id="rId10"/>
-    <sheet name="Observador 9" sheetId="11" r:id="rId11"/>
-    <sheet name="Observador 10" sheetId="12" r:id="rId12"/>
-    <sheet name="Observador 11" sheetId="13" r:id="rId13"/>
-    <sheet name="Observador 12" sheetId="14" r:id="rId14"/>
-    <sheet name="Observador 13" sheetId="8" r:id="rId15"/>
-    <sheet name="Observador 14" sheetId="15" r:id="rId16"/>
+    <sheet name="Modelo V 1.0.0" sheetId="17" r:id="rId2"/>
+    <sheet name="Total Observadores" sheetId="16" r:id="rId3"/>
+    <sheet name="Observador 1" sheetId="2" r:id="rId4"/>
+    <sheet name="Observador 2" sheetId="3" r:id="rId5"/>
+    <sheet name="Observador 3" sheetId="4" r:id="rId6"/>
+    <sheet name="Observador 4" sheetId="5" r:id="rId7"/>
+    <sheet name="Observador 5" sheetId="6" r:id="rId8"/>
+    <sheet name="Observador 6" sheetId="7" r:id="rId9"/>
+    <sheet name="Observador 7" sheetId="9" r:id="rId10"/>
+    <sheet name="Observador 8" sheetId="10" r:id="rId11"/>
+    <sheet name="Observador 9" sheetId="11" r:id="rId12"/>
+    <sheet name="Observador 10" sheetId="12" r:id="rId13"/>
+    <sheet name="Observador 11" sheetId="13" r:id="rId14"/>
+    <sheet name="Observador 12" sheetId="14" r:id="rId15"/>
+    <sheet name="Observador 13" sheetId="8" r:id="rId16"/>
+    <sheet name="Observador 14" sheetId="15" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="77">
   <si>
     <t>Imagem</t>
   </si>
@@ -2445,7 +2446,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,6 +2803,434 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9136D6E9-C6C5-4FA7-A286-A39E16C3BFC4}">
+  <dimension ref="A1:X31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X2" sqref="C2:X2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2/C2</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <f>G2/F2</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3">
+        <f>J2/I2</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3">
+        <f>M2/L2</f>
+        <v>0.5</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>P2/O2</f>
+        <v>0.5</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2" s="3">
+        <f>S2/R2</f>
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>30</v>
+      </c>
+      <c r="V2">
+        <f>SUM(D2,G2,J2,M2,P2,S2)</f>
+        <v>12</v>
+      </c>
+      <c r="W2">
+        <f>U2-V2</f>
+        <v>18</v>
+      </c>
+      <c r="X2" s="3">
+        <f>V2/U2</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B190202D-8CC8-47DE-88B2-14E2F7A894F3}">
   <dimension ref="A1:X31"/>
   <sheetViews>
@@ -3228,7 +3657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F481EE0-966F-415E-AC40-8DFA8C4704E8}">
   <dimension ref="A1:X31"/>
   <sheetViews>
@@ -3656,7 +4085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4C1D58-4E3E-4158-B879-60415564D3E2}">
   <dimension ref="A1:X31"/>
   <sheetViews>
@@ -4084,7 +4513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E02F76-8AB2-4912-98D5-F9B580231C57}">
   <dimension ref="A1:X31"/>
   <sheetViews>
@@ -4512,7 +4941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE08ED6-0718-4522-8809-E779B6AA473F}">
   <dimension ref="A1:X31"/>
   <sheetViews>
@@ -4940,7 +5369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1CFA17-6AC7-464E-A158-2DEC5FF87653}">
   <dimension ref="A1:X31"/>
   <sheetViews>
@@ -5368,7 +5797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CF90B9-9313-4A38-9ED0-46CA9FF40F21}">
   <dimension ref="A1:X31"/>
   <sheetViews>
@@ -5797,10 +6226,277 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB1C7EE-590E-44E7-ACB1-951D4884EF73}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27014108-2AB9-4940-A98D-2D0DB7F58673}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -7086,12 +7782,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F59B7DA-2118-4C44-B785-AB72DDE8B83C}">
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y1" sqref="C1:Y2"/>
+      <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7515,7 +8211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2339DC-E06F-417F-9A07-3F4A59409D64}">
   <dimension ref="A1:X31"/>
   <sheetViews>
@@ -7944,7 +8640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEABDC4-EB70-4E57-9B29-45C49D84A73C}">
   <dimension ref="A1:X31"/>
   <sheetViews>
@@ -8372,7 +9068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FB6B6-5D8D-4B80-8674-C0F684439A07}">
   <dimension ref="A1:X31"/>
   <sheetViews>
@@ -8799,7 +9495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2AAEC8-2BEC-4DFD-AA1E-D0740334777E}">
   <dimension ref="A1:X31"/>
   <sheetViews>
@@ -9227,7 +9923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6248A6-6066-46BA-B593-8784A87DD1F3}">
   <dimension ref="A1:X31"/>
   <sheetViews>
@@ -9653,432 +10349,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9136D6E9-C6C5-4FA7-A286-A39E16C3BFC4}">
-  <dimension ref="A1:X31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X2" sqref="C2:X2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <f>D2/C2</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <f>G2/F2</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2" s="3">
-        <f>J2/I2</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2" s="3">
-        <f>M2/L2</f>
-        <v>0.5</v>
-      </c>
-      <c r="O2">
-        <v>6</v>
-      </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="3">
-        <f>P2/O2</f>
-        <v>0.5</v>
-      </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2" s="3">
-        <f>S2/R2</f>
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>30</v>
-      </c>
-      <c r="V2">
-        <f>SUM(D2,G2,J2,M2,P2,S2)</f>
-        <v>12</v>
-      </c>
-      <c r="W2">
-        <f>U2-V2</f>
-        <v>18</v>
-      </c>
-      <c r="X2" s="3">
-        <f>V2/U2</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="2">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>